--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789970.201014497</v>
+        <v>1865499.870679303</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.6300723051348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.445628158154</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.08932666651348</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>186.815174149556</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>109.3643741611146</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.91544265059197</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>46.36452066793935</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>133.9963273159767</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,10 +1189,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.27173600468102</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>52.52844106858938</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.1426547140132</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185858</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>132.5906791667252</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>86.96938224143243</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>41.92656778835438</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>24.29263104716687</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>175.2428052938434</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.07013494900221</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>140.8661662454925</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>104.3370797092945</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>158.6625955097718</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1182.332723154365</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>771.3468183647574</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>353.3830102629443</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862865</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287786</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.291778689542</v>
+        <v>589.3213554805877</v>
       </c>
       <c r="F5" t="n">
-        <v>723.3058738999346</v>
+        <v>178.3354506909802</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>164.4120466295711</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>164.4120466295711</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>711.0426784987656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>711.0426784987656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>711.0426784987656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>711.0426784987656</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>711.0426784987656</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="V7" t="n">
-        <v>711.0426784987656</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="W7" t="n">
-        <v>421.6255084618049</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X7" t="n">
-        <v>421.6255084618049</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4837,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1780.41262192169</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1780.41262192169</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1780.41262192169</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>302.7751770479794</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>302.7751770479794</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>152.6585376356436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>152.6585376356436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>152.6585376356436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6585376356436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>295.8809182883532</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5038,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300437</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5343,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>233.785243411008</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555207</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619849</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
         <v>1198.760773441947</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557903</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U19" t="n">
-        <v>1141.200876391121</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V19" t="n">
-        <v>1141.200876391121</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W19" t="n">
-        <v>1141.200876391121</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X19" t="n">
-        <v>1141.200876391121</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.200876391121</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2471.066311049163</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>2881.956579893676</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.0175521403269</v>
+        <v>4188.073909669421</v>
       </c>
       <c r="C22" t="n">
-        <v>447.0175521403269</v>
+        <v>4019.137726741514</v>
       </c>
       <c r="D22" t="n">
-        <v>447.0175521403269</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E22" t="n">
-        <v>447.0175521403269</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F22" t="n">
-        <v>447.0175521403269</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383442</v>
+        <v>4818.504504541207</v>
       </c>
       <c r="X22" t="n">
-        <v>447.0175521403269</v>
+        <v>4590.51495364319</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.0175521403269</v>
+        <v>4369.72237449966</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5989,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.1390269937327</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>570.2028440658258</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>420.0862046534901</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>272.173111071097</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>272.173111071097</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>272.173111071097</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>121.7551026190403</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9316061372629</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.1390269937327</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>3443.999848753677</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3686.322319899658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3517.386136971751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808406</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771445</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4088.763363873428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1471.669354659368</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1271.749344574921</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1271.749344574921</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>987.0428172689878</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>732.358329063101</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>732.358329063101</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>732.358329063101</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.666285013068</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="C40" t="n">
-        <v>860.7301020851612</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>814.01910241245</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>666.1060088300569</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>519.2160613321465</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>351.0407396519671</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>1098.423997082767</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.423997082767</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.423997082767</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,19 +7405,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,13 +7639,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7652,25 +7654,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1114.86560735774</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1114.86560735774</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>825.448437320779</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735861</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814589</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208048</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>153.6466732318521</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>79.52418622194516</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>244.5964305482366</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>86.12661441710512</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>10.654974866147</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368678</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.98990566424403</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>110.9945471047339</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7618452329351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.047662122043675</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>78.54216539558253</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>44.27839330891788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>127.5747568888055</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651768</v>
-      </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26332,7 +26334,7 @@
         <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
@@ -26341,19 +26343,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26445,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26476,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639997</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
+        <v>273517.069850545</v>
+      </c>
+      <c r="D6" t="n">
         <v>273517.0698505451</v>
       </c>
-      <c r="D6" t="n">
-        <v>273517.0698505447</v>
-      </c>
       <c r="E6" t="n">
-        <v>-143406.7073749161</v>
+        <v>-143406.7073749159</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="G6" t="n">
         <v>381753.3291019802</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019805</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019802</v>
+        <v>381753.3291019803</v>
       </c>
       <c r="J6" t="n">
         <v>205330.1099093873</v>
@@ -26549,19 +26551,19 @@
         <v>381753.3291019802</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019803</v>
+        <v>381753.3291019802</v>
       </c>
       <c r="M6" t="n">
-        <v>246952.3138681431</v>
+        <v>246952.3138681432</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019802</v>
+        <v>381753.3291019804</v>
       </c>
       <c r="O6" t="n">
         <v>381753.3291019802</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019802</v>
+        <v>381753.3291019801</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.1037693583457</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>27.47714460620318</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>121.1574944321144</v>
+        <v>13.43676775329516</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.968995871239</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>42.5669420837467</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.20730730432234</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>239.9173535740384</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>231.2765644550309</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>116.7497573142986</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.5602441772563</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>103.6424477732058</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296106</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330526</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523295</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36849,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1865499.870679303</v>
+        <v>1858482.855787592</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H2" t="n">
-        <v>296.445628158154</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8100533453327</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.5627265154902</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>109.3643741611146</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>83.48093156597398</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>46.36452066793935</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>133.9963273159767</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>66.58496257157255</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,16 +1189,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.27173600468102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,13 +1660,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.08991894886655</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>70.89698591161007</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>41.92656778835438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>215.0546805228902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>59.77945773664946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278749997</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.8661662454925</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.2898147863548</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.083492693021</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.120975752609</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1568.120975752609</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.332723154365</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>771.3468183647574</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>353.3830102629443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2323.683332757143</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685582</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>975.109608078832</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>589.3213554805877</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>178.3354506909802</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>164.4120466295711</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>164.4120466295711</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2557.796228249752</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2557.796228249752</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2304.034442887843</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1972.971555544273</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>681.2961350468995</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.168914859137</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>539.164327873261</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>121.2005197714478</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883532</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883532</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,19 +5299,19 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>315.1013257704666</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>164.9846863581309</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4503.13917884751</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C19" t="n">
-        <v>4334.202995919603</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D19" t="n">
-        <v>4184.086356507268</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E19" t="n">
-        <v>4036.173262924875</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X19" t="n">
-        <v>4860.854573014292</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="Y19" t="n">
-        <v>4684.78764367775</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2471.066311049163</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2881.956579893676</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4188.073909669421</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>4019.137726741514</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>3869.021087329178</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>3721.107993746785</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>4818.504504541207</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>4590.51495364319</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>4369.72237449966</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,19 +6481,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4860.854573014292</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>4684.78764367775</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7034,7 +7034,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954965</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>814.01910241245</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>666.1060088300569</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>519.2160613321465</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>351.0407396519671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>199.530035688927</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814591</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>96.03744927814711</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.3420956754254</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>99.40364951451103</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>154.8126694774271</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>244.5964305482366</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675401</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>10.654974866147</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>192.3581855871785</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338955</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>115.5623585656776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>8.047662122043675</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.54216539558253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407087</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407082</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,37 +26325,37 @@
         <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639996</v>
+        <v>-316450.8093639998</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.069850545</v>
+        <v>273517.0698505453</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505451</v>
+        <v>273517.0698505452</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749159</v>
+        <v>-144381.2986346374</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422582</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422583</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093873</v>
+        <v>204355.5186496656</v>
       </c>
       <c r="K6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422584</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="M6" t="n">
-        <v>246952.3138681432</v>
+        <v>245977.7226084214</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019804</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="O6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019801</v>
+        <v>380778.7378422585</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H2" t="n">
-        <v>27.47714460620318</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.43676775329516</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.02192683660456</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>42.5669420837467</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>90.93478124299753</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>239.9173535740384</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>231.2765644550309</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>257.3378101927846</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.5602441772563</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3937499721746</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36445,7 +36445,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>406.4618263286133</v>
+        <v>598.833559628142</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117968</v>
       </c>
       <c r="Q31" t="n">
         <v>39.22569997187475</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38022,10 +38022,10 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1858482.855787592</v>
+        <v>1863422.118636623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>20.52965284373308</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.5627265154902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>83.48093156597398</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>88.15868949188329</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>220.963363940806</v>
       </c>
       <c r="H8" t="n">
-        <v>66.58496257157255</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.08991894886655</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>70.89698591161007</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>192.6211591710424</v>
+        <v>14.97068936074829</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278749997</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>144.568816408868</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>54.6855279182297</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1352.114858251602</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>966.3266056533573</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>555.3407008637498</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2557.796228249752</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2557.796228249752</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2304.034442887843</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1972.971555544273</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1620.202900274159</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.202900274159</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.202900274159</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
-        <v>539.164327873261</v>
+        <v>757.7989949011973</v>
       </c>
       <c r="G8" t="n">
-        <v>121.2005197714478</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982761</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224644</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305956</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>315.1013257704666</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>164.9846863581309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>892.5226247423514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,31 +5737,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6426,10 +6426,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,28 +6530,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557898</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473451</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,31 +6925,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,7 +7034,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1016.198248099061</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>761.5137598931742</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>472.0965898562135</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.3420956754254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.40364951451103</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>154.8126694774271</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385015923</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675401</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>33.08849621799476</v>
+        <v>210.7389660282889</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338955</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>141.954181927723</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>231.5518244803476</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894073.2603407087</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407082</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>488786.3246721358</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.3246721357</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639998</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505453</v>
+        <v>273517.0698505449</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505452</v>
+        <v>273517.069850545</v>
       </c>
       <c r="E6" t="n">
-        <v>-144381.2986346374</v>
+        <v>-143504.1665008882</v>
       </c>
       <c r="F6" t="n">
-        <v>380778.7378422582</v>
+        <v>381655.869976008</v>
       </c>
       <c r="G6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="H6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="I6" t="n">
-        <v>380778.7378422583</v>
+        <v>381655.869976008</v>
       </c>
       <c r="J6" t="n">
-        <v>204355.5186496656</v>
+        <v>205232.6507834151</v>
       </c>
       <c r="K6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="L6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="M6" t="n">
-        <v>245977.7226084214</v>
+        <v>246854.8547421708</v>
       </c>
       <c r="N6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="O6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="P6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>393.2545171770619</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>196.2346308013786</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.02192683660456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>90.93478124299753</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>298.0792491641703</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.820806079989</v>
       </c>
       <c r="H8" t="n">
-        <v>257.3378101927846</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>200.3937499721746</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>598.833559628142</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006117968</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
